--- a/Met_tranc_1/table.xlsx
+++ b/Met_tranc_1/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
   <si>
     <t>int</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>;|,</t>
+  </si>
+  <si>
+    <t>;|const|var</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,13 +184,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B89" sqref="B1:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,22 +1409,22 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="C41" s="7">
+        <v>85</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1696,22 +1708,22 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54">
-        <v>-1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
+      <c r="B54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="6">
+        <v>83</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1834,22 +1846,22 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="5">
         <v>8</v>
       </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2386,30 +2398,138 @@
       <c r="A84" s="2">
         <v>83</v>
       </c>
+      <c r="B84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="6">
+        <v>32</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>82</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>87</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>88</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>-1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>-1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">

--- a/Met_tranc_1/table.xlsx
+++ b/Met_tranc_1/table.xlsx
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>

--- a/Met_tranc_1/table.xlsx
+++ b/Met_tranc_1/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>int</t>
   </si>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,13 +181,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:G90"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +487,7 @@
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -497,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -520,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -543,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -566,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -589,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -612,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -635,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -658,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -681,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -704,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -727,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -750,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -773,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -796,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -818,8 +831,9 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -842,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -865,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -888,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -911,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -934,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -957,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -980,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1003,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1011,7 +1025,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -1026,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1049,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1072,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1095,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1117,8 +1131,9 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1141,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2000,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -2023,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -2042,22 +2057,22 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="3">
-        <v>71</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
+      <c r="B69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="11">
+        <v>70</v>
+      </c>
+      <c r="D69" s="11">
+        <v>1</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2065,22 +2080,22 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="3">
-        <v>70</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="B70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="11">
+        <v>71</v>
+      </c>
+      <c r="D70" s="11">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2115,7 +2130,7 @@
         <v>24</v>
       </c>
       <c r="C72" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -2134,22 +2149,22 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="3">
-        <v>73</v>
-      </c>
-      <c r="D73" s="3">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
+      <c r="C73" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1</v>
+      </c>
+      <c r="G73" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2157,22 +2172,22 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3">
+      <c r="B74" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="12">
+        <v>75</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+      <c r="E74" s="12">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2180,22 +2195,22 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="3">
-        <v>75</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
+      <c r="B75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="8">
+        <v>65</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0</v>
+      </c>
+      <c r="E75" s="8">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0</v>
+      </c>
+      <c r="G75" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2203,22 +2218,22 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="3">
-        <v>79</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="B76" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="11">
+        <v>76</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2227,7 +2242,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C77" s="3">
         <v>80</v>
@@ -2250,7 +2265,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78" s="3">
         <v>81</v>
@@ -2273,7 +2288,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="3">
         <v>82</v>
@@ -2288,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2296,19 +2311,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C80" s="3">
-        <v>-1</v>
+        <v>83</v>
       </c>
       <c r="D80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="3">
         <v>0</v>
       </c>
       <c r="F80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -2319,7 +2334,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" s="3">
         <v>-1</v>
@@ -2342,7 +2357,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="3">
         <v>-1</v>
@@ -2365,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="3">
         <v>-1</v>
@@ -2388,13 +2403,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C84" s="3">
         <v>-1</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="3">
         <v>0</v>
@@ -2411,10 +2426,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C85" s="3">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="D85" s="3">
         <v>0</v>
@@ -2423,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2434,10 +2449,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C86" s="3">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D86" s="3">
         <v>0</v>
@@ -2449,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2457,10 +2472,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" s="3">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D87" s="3">
         <v>0</v>
@@ -2472,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2480,7 +2495,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" s="3">
         <v>89</v>
@@ -2495,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2503,19 +2518,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" s="3">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="D89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -2526,7 +2541,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" s="3">
         <v>-1</v>
@@ -2547,6 +2562,24 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
